--- a/Resources/ZmanimFunctionList.xlsx
+++ b/Resources/ZmanimFunctionList.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub Project\MYZman\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC6585F-A1A5-4771-A48B-71E6401BA07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C1E826-C7F7-4D1F-9A7B-9D3C98BDF6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2955" yWindow="2745" windowWidth="35445" windowHeight="18255" xr2:uid="{67155520-7577-4C1A-98E8-EE8F939659DB}"/>
   </bookViews>
@@ -33,35 +28,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Abraham Gordon</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{3802FCBC-8361-40C3-A9BE-0A6FFB0A505B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>place is at
-getSofZmanAchilasChametzGRA</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1032">
-  <si>
-    <t>getAlos120</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1028">
   <si>
     <t>getAlos120Zmanis</t>
   </si>
@@ -418,18 +386,6 @@
   </si>
   <si>
     <t>Tzais 16.1 Degrees</t>
-  </si>
-  <si>
-    <t>getSunrise</t>
-  </si>
-  <si>
-    <t>getSeaLevelSunset</t>
-  </si>
-  <si>
-    <t>getSeaLevelSunrise</t>
-  </si>
-  <si>
-    <t>getSunset</t>
   </si>
   <si>
     <t>EngName</t>
@@ -3349,12 +3305,15 @@
   <si>
     <t>Plag hamincha based on the opinion that the day starts at alos 16.1° and ends at sunset.</t>
   </si>
+  <si>
+    <t>GetSofZmanAchilasChametzGRA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3367,12 +3326,6 @@
       <color rgb="FF454545"/>
       <name val="Courier New"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3450,12 +3403,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3950,12 +3903,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1ED152-0140-47AF-AED1-F511971FEAD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1ED152-0140-47AF-AED1-F511971FEAD3}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3978,25 +3931,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="F1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4004,22 +3957,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>379</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4027,22 +3980,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>378</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4050,22 +4003,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>4</v>
+        <v>746</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4073,22 +4026,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>377</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4096,22 +4049,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4119,22 +4072,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4142,22 +4095,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1</v>
+        <v>375</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4165,22 +4118,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>384</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4188,22 +4141,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4211,22 +4164,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>382</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4234,22 +4187,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>383</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4257,22 +4210,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4280,22 +4233,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>8</v>
+        <v>381</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4303,22 +4256,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>380</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4326,22 +4279,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>558</v>
+        <v>747</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4349,22 +4302,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>22</v>
+        <v>411</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4372,22 +4325,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>410</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4395,22 +4348,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>409</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4418,22 +4371,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>758</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4441,22 +4394,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>23</v>
+        <v>757</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4464,22 +4417,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4487,22 +4440,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>120</v>
+        <v>486</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4510,22 +4463,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>122</v>
+        <v>429</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4533,22 +4486,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>582</v>
+        <v>765</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4556,22 +4509,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>48</v>
+        <v>463</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4579,22 +4532,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>47</v>
+        <v>462</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4602,22 +4555,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>46</v>
+        <v>461</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4625,22 +4578,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>42</v>
+        <v>453</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4648,22 +4601,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>43</v>
+        <v>454</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4671,22 +4624,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>544</v>
+        <v>460</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4694,22 +4647,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>549</v>
+        <v>468</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4717,22 +4670,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4740,22 +4693,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>547</v>
+        <v>466</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4763,22 +4716,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>548</v>
+        <v>467</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4786,22 +4739,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>545</v>
+        <v>464</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4809,22 +4762,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>546</v>
+        <v>465</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4832,22 +4785,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4855,22 +4808,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>41</v>
+        <v>452</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4878,22 +4831,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4901,22 +4854,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>579</v>
+        <v>763</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4924,22 +4877,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>44</v>
+        <v>455</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4947,22 +4900,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>54</v>
+        <v>478</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -4970,22 +4923,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>53</v>
+        <v>477</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -4993,22 +4946,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>52</v>
+        <v>476</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5016,22 +4969,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>551</v>
+        <v>475</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5039,22 +4992,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>556</v>
+        <v>483</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5062,22 +5015,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>557</v>
+        <v>484</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -5085,22 +5038,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>554</v>
+        <v>481</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -5108,22 +5061,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>555</v>
+        <v>482</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5131,22 +5084,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>552</v>
+        <v>479</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5154,22 +5107,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>553</v>
+        <v>480</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5177,22 +5130,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H53" s="4"/>
     </row>
@@ -5201,22 +5154,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>49</v>
+        <v>470</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5224,22 +5177,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>50</v>
+        <v>471</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5247,22 +5200,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>581</v>
+        <v>764</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5270,22 +5223,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>16</v>
+        <v>403</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -5293,22 +5246,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>51</v>
+        <v>473</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5316,22 +5269,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5339,22 +5292,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5362,19 +5315,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>931</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>932</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="G61" s="4"/>
     </row>
@@ -5383,22 +5336,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>521</v>
+        <v>401</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -5406,22 +5359,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>17</v>
+        <v>404</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5429,22 +5382,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>522</v>
+        <v>402</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5452,22 +5405,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5475,22 +5428,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>570</v>
+        <v>754</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5498,22 +5451,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>571</v>
+        <v>755</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -5521,19 +5474,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>595</v>
+        <v>405</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G68" s="4"/>
     </row>
@@ -5542,22 +5495,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>523</v>
+        <v>407</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -5565,22 +5518,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>18</v>
+        <v>406</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -5588,22 +5541,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>572</v>
+        <v>756</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E71" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>726</v>
-      </c>
       <c r="G71" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -5611,22 +5564,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5634,22 +5587,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -5657,22 +5610,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>29</v>
+        <v>419</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5680,22 +5633,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>28</v>
+        <v>418</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5703,22 +5656,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>27</v>
+        <v>417</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5726,22 +5679,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>26</v>
+        <v>413</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5749,22 +5702,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>25</v>
+        <v>412</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5772,22 +5725,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5795,22 +5748,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>524</v>
+        <v>415</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -5818,22 +5771,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>525</v>
+        <v>416</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -5841,22 +5794,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>531</v>
+        <v>426</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -5864,22 +5817,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>532</v>
+        <v>427</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -5887,22 +5840,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>529</v>
+        <v>424</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -5910,22 +5863,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>530</v>
+        <v>425</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5933,22 +5886,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>527</v>
+        <v>422</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -5956,22 +5909,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5979,22 +5932,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>526</v>
+        <v>421</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -6002,22 +5955,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6025,22 +5978,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>573</v>
+        <v>759</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -6048,22 +6001,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>31</v>
+        <v>428</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -6071,22 +6024,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>566</v>
+        <v>753</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -6094,22 +6047,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>565</v>
+        <v>752</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -6117,22 +6070,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>564</v>
+        <v>751</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -6140,22 +6093,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>563</v>
+        <v>750</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -6163,22 +6116,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>562</v>
+        <v>749</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -6186,22 +6139,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>667</v>
-      </c>
       <c r="E97" s="4" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -6209,22 +6162,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>123</v>
+        <v>487</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -6232,22 +6185,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>121</v>
+        <v>430</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -6255,22 +6208,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>583</v>
+        <v>766</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -6278,22 +6231,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>69</v>
+        <v>504</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -6301,22 +6254,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>70</v>
+        <v>505</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -6324,22 +6277,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>71</v>
+        <v>768</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -6347,22 +6300,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>72</v>
+        <v>769</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -6370,22 +6323,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>73</v>
+        <v>506</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -6393,22 +6346,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>74</v>
+        <v>507</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -6416,22 +6369,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>75</v>
+        <v>508</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -6439,22 +6392,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>76</v>
+        <v>509</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -6462,22 +6415,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>77</v>
+        <v>510</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -6485,22 +6438,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>78</v>
+        <v>770</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -6508,22 +6461,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -6531,22 +6484,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>80</v>
+        <v>771</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -6554,22 +6507,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>81</v>
+        <v>512</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -6577,22 +6530,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>82</v>
+        <v>772</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -6600,22 +6553,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>83</v>
+        <v>773</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -6623,22 +6576,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>58</v>
+        <v>492</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -6646,22 +6599,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>59</v>
+        <v>493</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -6669,22 +6622,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>60</v>
+        <v>494</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -6692,22 +6645,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>61</v>
+        <v>495</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -6715,22 +6668,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>62</v>
+        <v>496</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -6738,22 +6691,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>609</v>
-      </c>
       <c r="G121" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -6761,22 +6714,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>63</v>
+        <v>498</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -6784,22 +6737,22 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>64</v>
+        <v>499</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -6807,22 +6760,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -6830,22 +6783,22 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>66</v>
+        <v>501</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -6853,22 +6806,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>67</v>
+        <v>502</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -6876,22 +6829,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>56</v>
+        <v>490</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -6899,22 +6852,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>57</v>
+        <v>491</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -6922,22 +6875,22 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>586</v>
+        <v>767</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -6945,22 +6898,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>68</v>
+        <v>503</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -6968,22 +6921,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>520</v>
+        <v>390</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -6991,22 +6944,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>13</v>
+        <v>387</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -7014,22 +6967,22 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -7037,22 +6990,22 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -7060,22 +7013,22 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -7083,22 +7036,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>14</v>
+        <v>389</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -7106,22 +7059,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>55</v>
+        <v>485</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -7129,22 +7082,22 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C138" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>802</v>
-      </c>
       <c r="E138" s="4" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -7152,22 +7105,22 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -7175,22 +7128,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -7198,22 +7151,22 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -7221,22 +7174,22 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -7244,22 +7197,22 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -7267,22 +7220,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>38</v>
+        <v>447</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -7290,22 +7243,22 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>542</v>
+        <v>448</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -7313,22 +7266,22 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>37</v>
+        <v>1027</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -7336,22 +7289,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>575</v>
+        <v>761</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -7359,22 +7312,22 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -7382,22 +7335,22 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>543</v>
+        <v>451</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -7405,22 +7358,22 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>39</v>
+        <v>449</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -7428,22 +7381,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>576</v>
+        <v>762</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -7451,22 +7404,22 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>35</v>
+        <v>436</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -7474,22 +7427,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>34</v>
+        <v>435</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -7497,22 +7450,22 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>33</v>
+        <v>434</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -7520,22 +7473,22 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>32</v>
+        <v>433</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E155" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="F155" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="G155" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -7543,22 +7496,22 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>533</v>
+        <v>431</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E156" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F156" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="F156" s="4" t="s">
-        <v>335</v>
-      </c>
       <c r="G156" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -7566,22 +7519,22 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>534</v>
+        <v>432</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -7589,22 +7542,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>540</v>
+        <v>442</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E158" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F158" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="G158" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -7612,22 +7565,22 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>541</v>
+        <v>443</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -7635,22 +7588,22 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -7658,22 +7611,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>539</v>
+        <v>441</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -7681,22 +7634,22 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -7704,22 +7657,22 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -7727,22 +7680,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>535</v>
+        <v>437</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -7750,22 +7703,22 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -7773,22 +7726,22 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>574</v>
+        <v>760</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -7796,30 +7749,29 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>36</v>
+        <v>444</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7841,51 +7793,51 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B2" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B4" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B5" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -7894,7 +7846,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B6" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -7903,7 +7855,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B7" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -7912,7 +7864,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B8" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -7921,7 +7873,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B9" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -7930,7 +7882,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B10" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -7939,7 +7891,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B11" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -7948,7 +7900,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B12" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -7957,7 +7909,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B13" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -7966,7 +7918,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B14" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -7975,7 +7927,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B15" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -7984,7 +7936,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B16" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -7993,7 +7945,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B17" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8002,7 +7954,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B18" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8011,7 +7963,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B19" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8020,7 +7972,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B20" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8029,7 +7981,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B21" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8038,7 +7990,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B22" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8047,7 +7999,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B23" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8056,7 +8008,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B24" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8065,7 +8017,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B25" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8074,7 +8026,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B26" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8083,7 +8035,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B27" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8092,7 +8044,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B28" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8101,7 +8053,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B29" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8110,7 +8062,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8119,7 +8071,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B31" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8128,7 +8080,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B32" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8137,7 +8089,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B33" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8146,7 +8098,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B34" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8155,7 +8107,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B35" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8164,7 +8116,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B36" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8173,7 +8125,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B37" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8182,7 +8134,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B38" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8191,7 +8143,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B39" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8200,7 +8152,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B40" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8209,7 +8161,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B41" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8218,7 +8170,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B42" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8227,7 +8179,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B43" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8236,7 +8188,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B44" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8245,7 +8197,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B45" s="2" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8254,7 +8206,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B46" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8263,7 +8215,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8272,7 +8224,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B48" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8281,7 +8233,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B49" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8290,7 +8242,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B50" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8299,7 +8251,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B51" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8308,7 +8260,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B52" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8317,7 +8269,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B53" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8326,7 +8278,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B54" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8335,7 +8287,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B55" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8344,7 +8296,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B56" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8353,7 +8305,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B57" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8362,7 +8314,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B58" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8371,7 +8323,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B59" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8380,7 +8332,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B60" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8389,7 +8341,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B61" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8398,7 +8350,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B62" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8407,7 +8359,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B63" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8416,7 +8368,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B64" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8425,7 +8377,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B65" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8434,7 +8386,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B66" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8443,7 +8395,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B67" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8452,7 +8404,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B68" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8461,7 +8413,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B69" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8470,7 +8422,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B70" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8479,7 +8431,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B71" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8488,7 +8440,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B72" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8497,7 +8449,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B73" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8506,7 +8458,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B74" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8515,7 +8467,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B75" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8524,7 +8476,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B76" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8533,7 +8485,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B77" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8542,7 +8494,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B78" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8551,7 +8503,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B79" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8560,7 +8512,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B80" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8569,7 +8521,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B81" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8578,7 +8530,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B82" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8587,7 +8539,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B83" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8596,7 +8548,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B84" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8605,7 +8557,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B85" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8614,7 +8566,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B86" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8623,7 +8575,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B87" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8632,7 +8584,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B88" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8641,7 +8593,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B89" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8650,7 +8602,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B90" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8659,7 +8611,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B91" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8668,7 +8620,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B92" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8677,7 +8629,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B93" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8686,7 +8638,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B94" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8695,7 +8647,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B95" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8704,7 +8656,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B96" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8713,7 +8665,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B97" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8722,7 +8674,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B98" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8731,7 +8683,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B99" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8740,7 +8692,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B100" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8749,7 +8701,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B101" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8758,7 +8710,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B102" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8767,7 +8719,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B103" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8776,7 +8728,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B104" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8785,7 +8737,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B105" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8794,7 +8746,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B106" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8803,7 +8755,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B107" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8812,7 +8764,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B108" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8821,7 +8773,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B109" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8830,7 +8782,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B110" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8839,7 +8791,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B111" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8848,7 +8800,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B112" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8857,7 +8809,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B113" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8866,7 +8818,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B114" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8875,7 +8827,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B115" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8884,7 +8836,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B116" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8893,7 +8845,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B117" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8902,7 +8854,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B118" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8911,7 +8863,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B119" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8920,7 +8872,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B120" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8929,7 +8881,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B121" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8938,7 +8890,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B122" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8947,7 +8899,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B123" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8956,7 +8908,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B124" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8965,7 +8917,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B125" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8974,7 +8926,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B126" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8983,7 +8935,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B127" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8992,7 +8944,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B128" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9001,7 +8953,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B129" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9010,7 +8962,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B130" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9019,7 +8971,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B131" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9028,7 +8980,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B132" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9037,7 +8989,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B133" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9046,7 +8998,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B134" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9055,7 +9007,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B135" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9064,7 +9016,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B136" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9073,7 +9025,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B137" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9082,7 +9034,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B138" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9091,7 +9043,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B139" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9100,7 +9052,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B140" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9109,7 +9061,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B141" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9118,7 +9070,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B142" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9127,7 +9079,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B143" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9136,7 +9088,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B144" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9145,7 +9097,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B145" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9154,7 +9106,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B146" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9163,7 +9115,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B147" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9172,7 +9124,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B148" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9181,7 +9133,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B149" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9190,7 +9142,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B150" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9199,7 +9151,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B151" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9208,7 +9160,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B152" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9217,7 +9169,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B153" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9226,7 +9178,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B154" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9235,7 +9187,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B155" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9244,7 +9196,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B156" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9253,7 +9205,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B157" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9262,7 +9214,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B158" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9271,7 +9223,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B159" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9280,7 +9232,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B160" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9289,7 +9241,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B161" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9298,7 +9250,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B162" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9307,7 +9259,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B163" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9316,7 +9268,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B164" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9325,7 +9277,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B165" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9334,7 +9286,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B166" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9343,7 +9295,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B167" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9352,7 +9304,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B168" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9361,7 +9313,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B169" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9370,7 +9322,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B170" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9379,7 +9331,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B171" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9388,7 +9340,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B172" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9397,7 +9349,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B173" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9406,7 +9358,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B174" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9415,7 +9367,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B175" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9424,7 +9376,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B176" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9433,7 +9385,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B177" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9447,8 +9399,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9470,27 +9423,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B2" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9499,7 +9452,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B4" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9508,7 +9461,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B5" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9517,7 +9470,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B6" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9526,7 +9479,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B7" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9535,7 +9488,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B8" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9544,7 +9497,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B9" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9553,7 +9506,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B10" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9562,7 +9515,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B11" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9571,7 +9524,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B12" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9580,7 +9533,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9589,7 +9542,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B14" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9598,7 +9551,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B15" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9607,7 +9560,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B16" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9616,7 +9569,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B17" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9625,7 +9578,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B18" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9634,7 +9587,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B19" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9643,7 +9596,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B20" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9652,7 +9605,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B21" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9661,7 +9614,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B22" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9670,7 +9623,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B23" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9679,7 +9632,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9688,7 +9641,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9697,7 +9650,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B26" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9706,7 +9659,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B27" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9715,7 +9668,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B28" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9724,7 +9677,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B29" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9733,7 +9686,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B30" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9742,7 +9695,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B31" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9751,7 +9704,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B32" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9760,7 +9713,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B33" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9769,7 +9722,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B34" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9778,7 +9731,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9787,7 +9740,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9796,7 +9749,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9805,7 +9758,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9814,7 +9767,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9823,7 +9776,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9832,7 +9785,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B41" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9841,7 +9794,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B42" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9850,7 +9803,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B43" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9859,7 +9812,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B44" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9868,7 +9821,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B45" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9877,7 +9830,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B46" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9886,7 +9839,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B47" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9895,7 +9848,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B48" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9904,7 +9857,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B49" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9913,7 +9866,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B50" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9922,7 +9875,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B51" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9931,7 +9884,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B52" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9940,7 +9893,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B53" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9949,7 +9902,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B54" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9958,7 +9911,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9967,7 +9920,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9976,7 +9929,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9985,7 +9938,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -9994,7 +9947,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10003,7 +9956,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10012,7 +9965,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10021,7 +9974,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10030,7 +9983,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10039,7 +9992,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10048,7 +10001,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10057,7 +10010,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10066,7 +10019,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B67" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10075,7 +10028,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10084,7 +10037,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B69" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10093,7 +10046,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10102,7 +10055,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B71" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10111,7 +10064,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B72" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10120,7 +10073,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10129,7 +10082,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10138,7 +10091,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10147,7 +10100,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B76" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10156,7 +10109,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10165,7 +10118,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10174,7 +10127,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10183,7 +10136,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B80" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10192,7 +10145,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B81" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10201,7 +10154,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B82" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10210,7 +10163,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B83" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10219,7 +10172,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B84" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10228,7 +10181,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B85" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10237,7 +10190,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B86" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10246,7 +10199,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10255,7 +10208,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B88" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10264,7 +10217,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B89" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10273,7 +10226,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B90" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10282,7 +10235,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B91" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10291,7 +10244,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B92" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10300,7 +10253,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B93" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10309,7 +10262,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B94" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10318,7 +10271,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B95" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10327,7 +10280,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B96" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10336,7 +10289,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B97" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10345,7 +10298,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B98" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10354,7 +10307,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B99" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10363,7 +10316,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B100" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10372,7 +10325,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B101" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10381,7 +10334,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B102" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10390,7 +10343,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B103" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10399,7 +10352,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B104" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10408,7 +10361,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B105" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10417,7 +10370,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B106" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10426,7 +10379,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B107" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10435,7 +10388,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B108" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10444,7 +10397,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B109" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10453,7 +10406,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B110" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10462,7 +10415,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B111" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10471,7 +10424,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B112" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10480,7 +10433,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B113" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10489,7 +10442,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B114" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10498,7 +10451,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B115" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10507,7 +10460,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B116" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10516,7 +10469,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B117" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10525,7 +10478,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B118" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10534,7 +10487,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B119" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10543,7 +10496,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B120" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10552,7 +10505,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B121" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10561,7 +10514,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B122" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10570,7 +10523,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B123" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10579,7 +10532,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B124" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10588,7 +10541,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B125" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10597,7 +10550,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B126" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10606,7 +10559,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B127" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10615,7 +10568,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B128" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10624,7 +10577,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B129" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10633,7 +10586,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B130" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10642,7 +10595,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B131" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10651,7 +10604,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B132" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10660,7 +10613,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B133" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10669,7 +10622,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B134" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10678,7 +10631,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B135" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10687,7 +10640,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B136" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10696,7 +10649,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B137" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10705,7 +10658,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B138" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10714,7 +10667,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B139" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10723,7 +10676,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B140" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10732,7 +10685,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B141" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10741,7 +10694,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B142" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10750,7 +10703,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B143" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10759,7 +10712,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B144" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10768,7 +10721,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B145" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10777,7 +10730,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B146" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10786,7 +10739,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B147" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10795,7 +10748,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B148" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10804,7 +10757,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B149" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10813,7 +10766,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B150" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10822,7 +10775,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B151" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10831,7 +10784,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B152" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10840,7 +10793,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B153" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10849,7 +10802,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B154" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10858,7 +10811,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B155" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10867,7 +10820,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B156" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10876,7 +10829,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B157" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10885,7 +10838,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B158" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10894,7 +10847,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B159" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10903,7 +10856,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B160" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10912,7 +10865,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B161" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10921,7 +10874,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B162" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10930,7 +10883,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B163" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10939,7 +10892,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B164" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10948,7 +10901,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B165" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10957,7 +10910,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B166" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10966,7 +10919,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B167" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10975,7 +10928,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B168" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10984,7 +10937,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B169" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -10993,7 +10946,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B170" s="3" t="b">
         <f>COUNTIF(Table2[list from dll],Table4[[#This Row],[kosherjava list]])&gt;0</f>
@@ -11007,8 +10960,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Resources/ZmanimFunctionList.xlsx
+++ b/Resources/ZmanimFunctionList.xlsx
@@ -2,10 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C29C46-FEE2-48E4-8503-6F4FC7791387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub Project\MYZman\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A90320-7E55-4BAF-A1FA-FBDA42A7929A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="35445" windowHeight="18255" xr2:uid="{67155520-7577-4C1A-98E8-EE8F939659DB}"/>
+    <workbookView xWindow="4125" yWindow="2430" windowWidth="26025" windowHeight="16680" xr2:uid="{67155520-7577-4C1A-98E8-EE8F939659DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation list" sheetId="1" r:id="rId1"/>
@@ -2358,24 +2363,12 @@
     <t>beginning of bain hashmashos (twilight) according to the Yereim (Rabbi Eliezer of Metz) calculated as the sun's position 3.05° above the horizon during the equinox in Yerushalayim, its position 18 minutes or 3/4 of an 24 minute Mil before sunset. According to the Yereim, bain hashmashos starts 3/4 of a Mil before sunset and tzais or nightfall starts at sunset</t>
   </si>
   <si>
-    <t>Mincha gedola according to the Baal Hatanya based on true sunrise to sunset (see Sunrise Baal Hatanya)</t>
-  </si>
-  <si>
     <t>Baal Hatanya's shkiah amiti (see Sunrise Baal Hatanya)</t>
   </si>
   <si>
-    <t>מנחה גדולה לדעת בעל התניא המחושב לפי נץ ושקיעה אמתי (ראה עוד אצל נץ החמה לדעת בעל התניא)</t>
-  </si>
-  <si>
-    <t>פלג המנחה לדעת בעל התניא המחושב לפי נץ ושקיעה אמתי (ראה עוד אצל נץ החמה לדעת בעל התניא)</t>
-  </si>
-  <si>
     <t>In the winter when 1/2 of a shaah zmanis is less than 30 minutes Mincha Gedola 30 Minutes will be returned, otherwise Baal Hatanya's Mincha Gedola will be returned.</t>
   </si>
   <si>
-    <t>מנחה קטנה לדעת בעל התניא על פי נץ ושקיעה אמתי (ראה עוד אצל נץ החמה לבעל התניא)</t>
-  </si>
-  <si>
     <t>משיכיר מבוסס על מיקום השמש כשהיא 7.65 מעלות מתחת לאופק הגיאומטרי (90 דקות°).</t>
   </si>
   <si>
@@ -2388,27 +2381,6 @@
     <t>Misheyakir based on the position of the sun when it is 7.65° below geometric zenith (90 minutes°).</t>
   </si>
   <si>
-    <t>Mincha ketana according to the Baal Hatanya based on true sunrise to sunset (see Sunrise Baal Hatanya)</t>
-  </si>
-  <si>
-    <t>Plag Hamincha according to the Baal Hatanya based on true sunrise to sunset (see Sunrise Baal Hatanya)</t>
-  </si>
-  <si>
-    <t>Shaah Zmanis according to the Baal Hatanya based on true sunrise to sunset (see Sunrise Baal Hatanya)</t>
-  </si>
-  <si>
-    <t>Sof Zman Achilas Chametz according to the Baal Hatanya based on true sunrise to sunset (see Sunrise Baal Hatanya)</t>
-  </si>
-  <si>
-    <t>Sof Zman Biur Chametz according to the Baal Hatanya based on true sunrise to sunset (see Sunrise Baal Hatanya)</t>
-  </si>
-  <si>
-    <t>Sof Zman Shma according to the Baal Hatanya based on true sunrise to sunset (see Sunrise Baal Hatanya)</t>
-  </si>
-  <si>
-    <t>Sof Zman Tfila according to the Baal Hatanya based on true sunrise to sunset (see Sunrise Baal Hatanya)</t>
-  </si>
-  <si>
     <t>Tzais according to the Baal Hatanya based on the position of the sun 24 minutes after sunset in Jerusalem on the equinox (March 16, the day that a solar hour is 60 minutes), which is 6° below geometric zenith</t>
   </si>
   <si>
@@ -2916,9 +2888,6 @@
     <t>סו''ז תפילה לדעת בעל התניא</t>
   </si>
   <si>
-    <t>סו''ז תפילה לדעת בעל התניא המחושב לפי נץ ושקיעה אמתי (ראה עוד אצל נץ החמה לדעת בעל התניא)</t>
-  </si>
-  <si>
     <t>סו''ז שמע עטרת תורה</t>
   </si>
   <si>
@@ -2997,9 +2966,6 @@
     <t>סו''ז שמע לדעת בעל התניא</t>
   </si>
   <si>
-    <t>סו''ז שמע לדעת בעל התניא המחושב לפי נץ ושקיעה אמתי (ראה עוד אצל נץ החמה לדעת בעל התניא)</t>
-  </si>
-  <si>
     <t>סו''ז תפילה עטרת תורה</t>
   </si>
   <si>
@@ -3267,9 +3233,6 @@
     <t>סו''ז אכילת חמץ לדעת בעל התניא</t>
   </si>
   <si>
-    <t>סו''ז אכילת חמץ לדעת בעל התניא המחושב לפי נץ ושקיעה אמתי (ראה עוד אצל נץ החמה לדעת בעל התניא)</t>
-  </si>
-  <si>
     <t>סו''ז ביעור חמץ מג''א 16.1 מעלות</t>
   </si>
   <si>
@@ -3291,9 +3254,6 @@
     <t>סו''ז ביעור חמץ לדעת בעל התניא</t>
   </si>
   <si>
-    <t>סו''ז ביעור חמץ לדעת בעל התניא המחושב לפי נץ ושקיעה אמתי (ראה עוד אצל נץ החמה לדעת בעל התניא)</t>
-  </si>
-  <si>
     <t>Alos (dawn) calculated using 96 minutes zmaniyos or 1/7.5th of the day before sunrise or sea level sunrise.</t>
   </si>
   <si>
@@ -3307,6 +3267,51 @@
   </si>
   <si>
     <t>GetSofZmanAchilasChametzGRA</t>
+  </si>
+  <si>
+    <t>סו''ז שמע לדעת בעל התניא המחושב לפי נץ ושקיעה מותאם (ראה עוד אצל נץ החמה לדעת בעל התניא)</t>
+  </si>
+  <si>
+    <t>מנחה גדולה לדעת בעל התניא המחושב לפי נץ ושקיעה מותאם (ראה עוד אצל נץ החמה לדעת בעל התניא)</t>
+  </si>
+  <si>
+    <t>מנחה קטנה לדעת בעל התניא על פי נץ ושקיעה מותאם (ראה עוד אצל נץ החמה לבעל התניא)</t>
+  </si>
+  <si>
+    <t>פלג המנחה לדעת בעל התניא המחושב לפי נץ ושקיעה מותאם (ראה עוד אצל נץ החמה לדעת בעל התניא)</t>
+  </si>
+  <si>
+    <t>סו''ז אכילת חמץ לדעת בעל התניא המחושב לפי נץ ושקיעה מותאם (ראה עוד אצל נץ החמה לדעת בעל התניא)</t>
+  </si>
+  <si>
+    <t>סו''ז ביעור חמץ לדעת בעל התניא המחושב לפי נץ ושקיעה מותאם (ראה עוד אצל נץ החמה לדעת בעל התניא)</t>
+  </si>
+  <si>
+    <t>זמן התפילה האחרונה לדעת בעל התניא המחושב לפי נץ ושקיעה מותאם (ראה עוד אצל נץ החמה לדעת בעל התניא)</t>
+  </si>
+  <si>
+    <t>Sof Zman Shma according to the Baal Hatanya based on adjusted sunrise to sunset (see Sunrise Baal Hatanya)</t>
+  </si>
+  <si>
+    <t>Sof Zman Tfila according to the Baal Hatanya based on adjusted sunrise to sunset (see Sunrise Baal Hatanya)</t>
+  </si>
+  <si>
+    <t>Mincha gedola according to the Baal Hatanya based on adjusted sunrise to sunset (see Sunrise Baal Hatanya)</t>
+  </si>
+  <si>
+    <t>Mincha ketana according to the Baal Hatanya based on adjusted sunrise to sunset (see Sunrise Baal Hatanya)</t>
+  </si>
+  <si>
+    <t>Plag Hamincha according to the Baal Hatanya based on adjusted sunrise to sunset (see Sunrise Baal Hatanya)</t>
+  </si>
+  <si>
+    <t>Sof Zman Achilas Chametz according to the Baal Hatanya based on adjusted sunrise to sunset (see Sunrise Baal Hatanya)</t>
+  </si>
+  <si>
+    <t>Sof Zman Biur Chametz according to the Baal Hatanya based on adjusted sunrise to sunset (see Sunrise Baal Hatanya)</t>
+  </si>
+  <si>
+    <t>Shaah Zmanis according to the Baal Hatanya based on adjusted sunrise to sunset (see Sunrise Baal Hatanya)</t>
   </si>
 </sst>
 </file>
@@ -3943,10 +3948,10 @@
         <v>153</v>
       </c>
       <c r="E1" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="F1" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="G1" t="s">
         <v>120</v>
@@ -4006,13 +4011,13 @@
         <v>639</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>640</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>641</v>
@@ -4153,7 +4158,7 @@
         <v>250</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>106</v>
@@ -4199,7 +4204,7 @@
         <v>251</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>106</v>
@@ -4282,13 +4287,13 @@
         <v>643</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>669</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>642</v>
@@ -4374,16 +4379,16 @@
         <v>676</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>677</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>106</v>
@@ -4397,16 +4402,16 @@
         <v>675</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>674</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>106</v>
@@ -4489,16 +4494,16 @@
         <v>644</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>670</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>106</v>
@@ -4509,16 +4514,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>463</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>356</v>
@@ -4532,16 +4537,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>462</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>355</v>
@@ -4555,16 +4560,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>461</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>354</v>
@@ -4584,13 +4589,13 @@
         <v>453</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>106</v>
@@ -4607,10 +4612,10 @@
         <v>454</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>197</v>
@@ -4624,16 +4629,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>460</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>353</v>
@@ -4647,16 +4652,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>468</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>361</v>
@@ -4670,16 +4675,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>469</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>362</v>
@@ -4693,16 +4698,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>466</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>359</v>
@@ -4716,16 +4721,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>467</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>360</v>
@@ -4739,16 +4744,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>357</v>
@@ -4762,16 +4767,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>465</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>358</v>
@@ -4785,19 +4790,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>457</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>106</v>
@@ -4814,13 +4819,13 @@
         <v>452</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>106</v>
@@ -4831,19 +4836,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>456</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>106</v>
@@ -4857,16 +4862,16 @@
         <v>653</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>896</v>
+        <v>911</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>897</v>
+        <v>1013</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>726</v>
+        <v>1020</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>106</v>
@@ -4883,13 +4888,13 @@
         <v>455</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>106</v>
@@ -4900,16 +4905,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>478</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>366</v>
@@ -4923,16 +4928,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>477</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>365</v>
@@ -4946,16 +4951,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>476</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>364</v>
@@ -4969,16 +4974,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>475</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>363</v>
@@ -4992,16 +4997,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>483</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>371</v>
@@ -5015,16 +5020,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>484</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>372</v>
@@ -5038,16 +5043,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>481</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>369</v>
@@ -5061,16 +5066,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>482</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>370</v>
@@ -5084,16 +5089,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>479</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>367</v>
@@ -5107,16 +5112,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>480</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>368</v>
@@ -5130,19 +5135,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>472</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>106</v>
@@ -5160,13 +5165,13 @@
         <v>470</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>106</v>
@@ -5177,19 +5182,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>471</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>106</v>
@@ -5203,16 +5208,16 @@
         <v>654</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>923</v>
+        <v>885</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>924</v>
+        <v>1019</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>727</v>
+        <v>1021</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>106</v>
@@ -5223,19 +5228,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>175</v>
+        <v>473</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>912</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>268</v>
+        <v>730</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>271</v>
+        <v>731</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>106</v>
@@ -5246,19 +5251,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>925</v>
+        <v>84</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>741</v>
+        <v>630</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>742</v>
+        <v>190</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>106</v>
@@ -5269,19 +5274,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>86</v>
+        <v>811</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>630</v>
+        <v>398</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>726</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>190</v>
+        <v>704</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>106</v>
@@ -5292,63 +5297,63 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>822</v>
+        <v>262</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>737</v>
+        <v>913</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>914</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>926</v>
+        <v>401</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>927</v>
+        <v>266</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G61" s="4"/>
+        <v>265</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>266</v>
+        <v>915</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>106</v>
@@ -5359,19 +5364,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>177</v>
+        <v>916</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>106</v>
@@ -5382,19 +5387,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>929</v>
+        <v>834</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>106</v>
@@ -5405,19 +5410,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>100</v>
+        <v>647</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>845</v>
+        <v>743</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>668</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>931</v>
+        <v>1014</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>191</v>
+        <v>1022</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>106</v>
@@ -5428,19 +5433,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>713</v>
+        <v>771</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>106</v>
@@ -5451,19 +5456,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>656</v>
+        <v>122</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>673</v>
+        <v>403</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>782</v>
+        <v>268</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>715</v>
+        <v>271</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>106</v>
@@ -5474,19 +5479,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>405</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="G68" s="4"/>
     </row>
@@ -5501,10 +5506,10 @@
         <v>407</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>210</v>
@@ -5527,7 +5532,7 @@
         <v>178</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>192</v>
@@ -5544,16 +5549,16 @@
         <v>648</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>672</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>716</v>
+        <v>1015</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>721</v>
+        <v>1023</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>106</v>
@@ -5691,7 +5696,7 @@
         <v>276</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>106</v>
@@ -5757,7 +5762,7 @@
         <v>283</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>211</v>
@@ -5803,7 +5808,7 @@
         <v>295</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>216</v>
@@ -5826,7 +5831,7 @@
         <v>296</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>227</v>
@@ -5849,7 +5854,7 @@
         <v>285</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>215</v>
@@ -5872,7 +5877,7 @@
         <v>294</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>226</v>
@@ -5895,7 +5900,7 @@
         <v>292</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>214</v>
@@ -5918,7 +5923,7 @@
         <v>293</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>225</v>
@@ -5941,7 +5946,7 @@
         <v>284</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>213</v>
@@ -5955,19 +5960,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>414</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>106</v>
@@ -5981,16 +5986,16 @@
         <v>649</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>678</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>714</v>
+        <v>1016</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>722</v>
+        <v>1024</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>106</v>
@@ -6027,13 +6032,13 @@
         <v>661</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>667</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>710</v>
@@ -6050,13 +6055,13 @@
         <v>660</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>666</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>709</v>
@@ -6073,13 +6078,13 @@
         <v>659</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>665</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>708</v>
@@ -6096,13 +6101,13 @@
         <v>655</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>663</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>707</v>
@@ -6119,13 +6124,13 @@
         <v>658</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>664</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>706</v>
@@ -6142,13 +6147,13 @@
         <v>657</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>662</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>705</v>
@@ -6162,7 +6167,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>487</v>
@@ -6211,16 +6216,16 @@
         <v>645</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>671</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>106</v>
@@ -6237,10 +6242,10 @@
         <v>504</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>695</v>
@@ -6260,10 +6265,10 @@
         <v>505</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>696</v>
@@ -6277,16 +6282,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>689</v>
@@ -6300,16 +6305,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>690</v>
@@ -6329,10 +6334,10 @@
         <v>506</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>697</v>
@@ -6352,10 +6357,10 @@
         <v>507</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>698</v>
@@ -6375,10 +6380,10 @@
         <v>508</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>699</v>
@@ -6398,10 +6403,10 @@
         <v>509</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>700</v>
@@ -6421,10 +6426,10 @@
         <v>510</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>701</v>
@@ -6438,16 +6443,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>691</v>
@@ -6467,10 +6472,10 @@
         <v>511</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>702</v>
@@ -6484,16 +6489,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>692</v>
@@ -6513,10 +6518,10 @@
         <v>512</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>203</v>
@@ -6530,16 +6535,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>693</v>
@@ -6553,16 +6558,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>694</v>
@@ -6582,10 +6587,10 @@
         <v>492</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>199</v>
@@ -6605,10 +6610,10 @@
         <v>493</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>200</v>
@@ -6628,10 +6633,10 @@
         <v>494</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>201</v>
@@ -6651,10 +6656,10 @@
         <v>495</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>202</v>
@@ -6674,10 +6679,10 @@
         <v>496</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>219</v>
@@ -6720,10 +6725,10 @@
         <v>498</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>220</v>
@@ -6743,10 +6748,10 @@
         <v>499</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>221</v>
@@ -6766,10 +6771,10 @@
         <v>500</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>222</v>
@@ -6789,10 +6794,10 @@
         <v>501</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>223</v>
@@ -6812,10 +6817,10 @@
         <v>502</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>224</v>
@@ -6835,10 +6840,10 @@
         <v>490</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>217</v>
@@ -6858,10 +6863,10 @@
         <v>491</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>218</v>
@@ -6878,16 +6883,16 @@
         <v>646</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>106</v>
@@ -6904,13 +6909,13 @@
         <v>503</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>106</v>
@@ -6996,7 +7001,7 @@
         <v>228</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>635</v>
@@ -7065,10 +7070,10 @@
         <v>485</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>198</v>
@@ -7082,19 +7087,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>797</v>
-      </c>
       <c r="E138" s="4" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>108</v>
@@ -7105,19 +7110,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>394</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>106</v>
@@ -7128,19 +7133,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>108</v>
@@ -7151,19 +7156,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="C141" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="F141" s="7" t="s">
         <v>794</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>805</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>108</v>
@@ -7174,19 +7179,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="C142" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>806</v>
-      </c>
       <c r="E142" s="4" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>108</v>
@@ -7197,19 +7202,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>108</v>
@@ -7220,16 +7225,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>447</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>349</v>
@@ -7243,16 +7248,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>448</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>350</v>
@@ -7266,16 +7271,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>195</v>
@@ -7292,16 +7297,16 @@
         <v>651</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>724</v>
+        <v>1025</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>106</v>
@@ -7312,16 +7317,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>450</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>351</v>
@@ -7335,16 +7340,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>451</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>352</v>
@@ -7358,16 +7363,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>449</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>196</v>
@@ -7384,16 +7389,16 @@
         <v>652</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>725</v>
+        <v>1026</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>106</v>
@@ -7528,7 +7533,7 @@
         <v>303</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>343</v>
@@ -7692,7 +7697,7 @@
         <v>335</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>106</v>
@@ -7703,19 +7708,19 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>445</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>106</v>
@@ -7729,16 +7734,16 @@
         <v>650</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>679</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>723</v>
+        <v>1027</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>106</v>
@@ -7832,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8026,7 +8031,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="B26" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8116,7 +8121,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="B36" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8161,7 +8166,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="B41" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8170,7 +8175,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="B42" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8179,7 +8184,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="B43" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8188,7 +8193,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B44" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8197,7 +8202,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="B45" s="2" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8206,7 +8211,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B46" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8287,7 +8292,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B55" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8296,7 +8301,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B56" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8341,7 +8346,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B61" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8377,7 +8382,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B65" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8386,7 +8391,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B66" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8539,7 +8544,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B83" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8692,7 +8697,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B100" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8701,7 +8706,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B101" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8737,7 +8742,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B105" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8809,7 +8814,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="B113" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -8926,7 +8931,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="B126" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9061,7 +9066,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="B141" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9079,7 +9084,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="B143" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9214,7 +9219,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="B158" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9241,7 +9246,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="B161" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9250,7 +9255,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="B162" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9304,7 +9309,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="B168" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9322,7 +9327,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="B170" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9340,7 +9345,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="B172" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>
@@ -9349,7 +9354,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="B173" s="3" t="b">
         <f>COUNTIF('Documentation list'!C:C,Table2[[#This Row],[list from dll]])&gt;0</f>

--- a/Resources/ZmanimFunctionList.xlsx
+++ b/Resources/ZmanimFunctionList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub Project\MYZman\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A90320-7E55-4BAF-A1FA-FBDA42A7929A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF069AD-C1BA-44F9-95ED-8F44CDEC1BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="2430" windowWidth="26025" windowHeight="16680" xr2:uid="{67155520-7577-4C1A-98E8-EE8F939659DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{67155520-7577-4C1A-98E8-EE8F939659DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation list" sheetId="1" r:id="rId1"/>
@@ -3912,7 +3912,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -9416,8 +9416,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
